--- a/medicine/Enfance/Jean_Victor/Jean_Victor.xlsx
+++ b/medicine/Enfance/Jean_Victor/Jean_Victor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Victor est un écrivain français, auteur des romans pour la jeunesse Les Chercheurs d'or de l'Alaska (1932) et Parmi les mangeurs d'hommes (1933).
 Sur le plan personnel, l'homme est connu pour avoir trouvé l'amour inopinément entre Benfeld et Strasbourg, croisant le regard de la belle Julie.
